--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slitrk2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slitrk2-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Slitrk2</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Slitrk2</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06744800000000001</v>
+        <v>0.02244366666666667</v>
       </c>
       <c r="H2">
-        <v>0.134896</v>
+        <v>0.067331</v>
       </c>
       <c r="I2">
-        <v>0.2751138013737743</v>
+        <v>0.09667216089868025</v>
       </c>
       <c r="J2">
-        <v>0.2375674066873069</v>
+        <v>0.1383222842867972</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N2">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O2">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P2">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q2">
-        <v>0.239693363724</v>
+        <v>0.09642779988233331</v>
       </c>
       <c r="R2">
-        <v>0.9587734548960001</v>
+        <v>0.5785667992939999</v>
       </c>
       <c r="S2">
-        <v>0.01694420081533258</v>
+        <v>0.008446371556863902</v>
       </c>
       <c r="T2">
-        <v>0.01132220604890778</v>
+        <v>0.009511932164162495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06744800000000001</v>
+        <v>0.02244366666666667</v>
       </c>
       <c r="H3">
-        <v>0.134896</v>
+        <v>0.067331</v>
       </c>
       <c r="I3">
-        <v>0.2751138013737743</v>
+        <v>0.09667216089868025</v>
       </c>
       <c r="J3">
-        <v>0.2375674066873069</v>
+        <v>0.1383222842867972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P3">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q3">
-        <v>0.8987600006266668</v>
+        <v>0.2990669829705556</v>
       </c>
       <c r="R3">
-        <v>5.392560003760001</v>
+        <v>2.691602846735</v>
       </c>
       <c r="S3">
-        <v>0.06353438284149647</v>
+        <v>0.02619608517089478</v>
       </c>
       <c r="T3">
-        <v>0.06368102410625506</v>
+        <v>0.04425131846876008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06744800000000001</v>
+        <v>0.02244366666666667</v>
       </c>
       <c r="H4">
-        <v>0.134896</v>
+        <v>0.067331</v>
       </c>
       <c r="I4">
-        <v>0.2751138013737743</v>
+        <v>0.09667216089868025</v>
       </c>
       <c r="J4">
-        <v>0.2375674066873069</v>
+        <v>0.1383222842867972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N4">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O4">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P4">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q4">
-        <v>0.4733460845680001</v>
+        <v>0.15464786073</v>
       </c>
       <c r="R4">
-        <v>2.840076507408</v>
+        <v>1.39183074657</v>
       </c>
       <c r="S4">
-        <v>0.03346138160632154</v>
+        <v>0.01354602400753349</v>
       </c>
       <c r="T4">
-        <v>0.03353861253388972</v>
+        <v>0.02288240469644034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06744800000000001</v>
+        <v>0.02244366666666667</v>
       </c>
       <c r="H5">
-        <v>0.134896</v>
+        <v>0.067331</v>
       </c>
       <c r="I5">
-        <v>0.2751138013737743</v>
+        <v>0.09667216089868025</v>
       </c>
       <c r="J5">
-        <v>0.2375674066873069</v>
+        <v>0.1383222842867972</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N5">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O5">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P5">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q5">
-        <v>1.376921276604</v>
+        <v>0.4100370706355</v>
       </c>
       <c r="R5">
-        <v>5.507685106416001</v>
+        <v>2.460222423813</v>
       </c>
       <c r="S5">
-        <v>0.09733615589185464</v>
+        <v>0.03591625501050141</v>
       </c>
       <c r="T5">
-        <v>0.06504054248571862</v>
+        <v>0.04044730674593926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06744800000000001</v>
+        <v>0.02244366666666667</v>
       </c>
       <c r="H6">
-        <v>0.134896</v>
+        <v>0.067331</v>
       </c>
       <c r="I6">
-        <v>0.2751138013737743</v>
+        <v>0.09667216089868025</v>
       </c>
       <c r="J6">
-        <v>0.2375674066873069</v>
+        <v>0.1383222842867972</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N6">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O6">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P6">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q6">
-        <v>0.162323998992</v>
+        <v>0.03042378167400001</v>
       </c>
       <c r="R6">
-        <v>0.9739439939520002</v>
+        <v>0.273814035066</v>
       </c>
       <c r="S6">
-        <v>0.01147487103245527</v>
+        <v>0.002664901247327855</v>
       </c>
       <c r="T6">
-        <v>0.0115013557408271</v>
+        <v>0.004501641868011719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.06744800000000001</v>
+        <v>0.02244366666666667</v>
       </c>
       <c r="H7">
-        <v>0.134896</v>
+        <v>0.067331</v>
       </c>
       <c r="I7">
-        <v>0.2751138013737743</v>
+        <v>0.09667216089868025</v>
       </c>
       <c r="J7">
-        <v>0.2375674066873069</v>
+        <v>0.1383222842867972</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N7">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O7">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P7">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q7">
-        <v>0.7407264588453334</v>
+        <v>0.1130519285194445</v>
       </c>
       <c r="R7">
-        <v>4.444358753072001</v>
+        <v>1.017467356675</v>
       </c>
       <c r="S7">
-        <v>0.05236280918631377</v>
+        <v>0.009902523905558808</v>
       </c>
       <c r="T7">
-        <v>0.05248366577170863</v>
+        <v>0.01672768034348336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02244366666666667</v>
+        <v>0.209719</v>
       </c>
       <c r="H8">
-        <v>0.067331</v>
+        <v>0.419438</v>
       </c>
       <c r="I8">
-        <v>0.09154552326877791</v>
+        <v>0.9033278391013198</v>
       </c>
       <c r="J8">
-        <v>0.1185776528560006</v>
+        <v>0.8616777157132027</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N8">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O8">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P8">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q8">
-        <v>0.07975919163850001</v>
+        <v>0.9010444712029998</v>
       </c>
       <c r="R8">
-        <v>0.478555149831</v>
+        <v>3.604177884811999</v>
       </c>
       <c r="S8">
-        <v>0.005638269408023752</v>
+        <v>0.07892492001606721</v>
       </c>
       <c r="T8">
-        <v>0.005651282880730412</v>
+        <v>0.05925451579617098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.02244366666666667</v>
+        <v>0.209719</v>
       </c>
       <c r="H9">
-        <v>0.067331</v>
+        <v>0.419438</v>
       </c>
       <c r="I9">
-        <v>0.09154552326877791</v>
+        <v>0.9033278391013198</v>
       </c>
       <c r="J9">
-        <v>0.1185776528560006</v>
+        <v>0.8616777157132027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>39.975685</v>
       </c>
       <c r="O9">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P9">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q9">
-        <v>0.2990669829705556</v>
+        <v>2.794553560838333</v>
       </c>
       <c r="R9">
-        <v>2.691602846735</v>
+        <v>16.76732136503</v>
       </c>
       <c r="S9">
-        <v>0.02114139055816234</v>
+        <v>0.2447824977776157</v>
       </c>
       <c r="T9">
-        <v>0.03178527928254551</v>
+        <v>0.2756632831221842</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02244366666666667</v>
+        <v>0.209719</v>
       </c>
       <c r="H10">
-        <v>0.067331</v>
+        <v>0.419438</v>
       </c>
       <c r="I10">
-        <v>0.09154552326877791</v>
+        <v>0.9033278391013198</v>
       </c>
       <c r="J10">
-        <v>0.1185776528560006</v>
+        <v>0.8616777157132027</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N10">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O10">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P10">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q10">
-        <v>0.1575083284903334</v>
+        <v>1.44506667231</v>
       </c>
       <c r="R10">
-        <v>1.417574956413</v>
+        <v>8.67040003386</v>
       </c>
       <c r="S10">
-        <v>0.01113444572082807</v>
+        <v>0.1265772946563655</v>
       </c>
       <c r="T10">
-        <v>0.01674021705995232</v>
+        <v>0.1425457821963961</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.02244366666666667</v>
+        <v>0.209719</v>
       </c>
       <c r="H11">
-        <v>0.067331</v>
+        <v>0.419438</v>
       </c>
       <c r="I11">
-        <v>0.09154552326877791</v>
+        <v>0.9033278391013198</v>
       </c>
       <c r="J11">
-        <v>0.1185776528560006</v>
+        <v>0.8616777157132027</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N11">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O11">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P11">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q11">
-        <v>0.4581775910085</v>
+        <v>3.8314846541685</v>
       </c>
       <c r="R11">
-        <v>2.749065546051</v>
+        <v>15.325938616674</v>
       </c>
       <c r="S11">
-        <v>0.03238910327143115</v>
+        <v>0.3356100942157704</v>
       </c>
       <c r="T11">
-        <v>0.03246385931462697</v>
+        <v>0.2519662183378127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02244366666666667</v>
+        <v>0.209719</v>
       </c>
       <c r="H12">
-        <v>0.067331</v>
+        <v>0.419438</v>
       </c>
       <c r="I12">
-        <v>0.09154552326877791</v>
+        <v>0.9033278391013198</v>
       </c>
       <c r="J12">
-        <v>0.1185776528560006</v>
+        <v>0.8616777157132027</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N12">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O12">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P12">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q12">
-        <v>0.054014140158</v>
+        <v>0.284287107078</v>
       </c>
       <c r="R12">
-        <v>0.4861272614220001</v>
+        <v>1.705722642468</v>
       </c>
       <c r="S12">
-        <v>0.003818321973897154</v>
+        <v>0.02490147590359643</v>
       </c>
       <c r="T12">
-        <v>0.005740702343921458</v>
+        <v>0.02804294696105953</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1222,19 +1222,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02244366666666667</v>
+        <v>0.209719</v>
       </c>
       <c r="H13">
-        <v>0.067331</v>
+        <v>0.419438</v>
       </c>
       <c r="I13">
-        <v>0.09154552326877791</v>
+        <v>0.9033278391013198</v>
       </c>
       <c r="J13">
-        <v>0.1185776528560006</v>
+        <v>0.8616777157132027</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,772 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N13">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O13">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P13">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q13">
-        <v>0.2464805143741111</v>
+        <v>1.056384313191667</v>
       </c>
       <c r="R13">
-        <v>2.218324629367</v>
+        <v>6.33830587915</v>
       </c>
       <c r="S13">
-        <v>0.01742399233643544</v>
+        <v>0.09253155653190451</v>
       </c>
       <c r="T13">
-        <v>0.02619631197422395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.100222</v>
-      </c>
-      <c r="H14">
-        <v>0.200444</v>
-      </c>
-      <c r="I14">
-        <v>0.4087957448891354</v>
-      </c>
-      <c r="J14">
-        <v>0.3530049910007009</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.5537505</v>
-      </c>
-      <c r="N14">
-        <v>7.107501</v>
-      </c>
-      <c r="O14">
-        <v>0.06158978841018559</v>
-      </c>
-      <c r="P14">
-        <v>0.04765892007993501</v>
-      </c>
-      <c r="Q14">
-        <v>0.356163982611</v>
-      </c>
-      <c r="R14">
-        <v>1.424655930444</v>
-      </c>
-      <c r="S14">
-        <v>0.02517764343070606</v>
-      </c>
-      <c r="T14">
-        <v>0.01682383665392058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.100222</v>
-      </c>
-      <c r="H15">
-        <v>0.200444</v>
-      </c>
-      <c r="I15">
-        <v>0.4087957448891354</v>
-      </c>
-      <c r="J15">
-        <v>0.3530049910007009</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>13.32522833333333</v>
-      </c>
-      <c r="N15">
-        <v>39.975685</v>
-      </c>
-      <c r="O15">
-        <v>0.2309385516983846</v>
-      </c>
-      <c r="P15">
-        <v>0.2680545492087383</v>
-      </c>
-      <c r="Q15">
-        <v>1.335481034023333</v>
-      </c>
-      <c r="R15">
-        <v>8.012886204140001</v>
-      </c>
-      <c r="S15">
-        <v>0.09440669726515924</v>
-      </c>
-      <c r="T15">
-        <v>0.0946245937311276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.100222</v>
-      </c>
-      <c r="H16">
-        <v>0.200444</v>
-      </c>
-      <c r="I16">
-        <v>0.4087957448891354</v>
-      </c>
-      <c r="J16">
-        <v>0.3530049910007009</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.017941</v>
-      </c>
-      <c r="N16">
-        <v>21.053823</v>
-      </c>
-      <c r="O16">
-        <v>0.1216274190507089</v>
-      </c>
-      <c r="P16">
-        <v>0.1411751426744924</v>
-      </c>
-      <c r="Q16">
-        <v>0.7033520829020001</v>
-      </c>
-      <c r="R16">
-        <v>4.220112497412001</v>
-      </c>
-      <c r="S16">
-        <v>0.04972077136977757</v>
-      </c>
-      <c r="T16">
-        <v>0.04983552996933186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.100222</v>
-      </c>
-      <c r="H17">
-        <v>0.200444</v>
-      </c>
-      <c r="I17">
-        <v>0.4087957448891354</v>
-      </c>
-      <c r="J17">
-        <v>0.3530049910007009</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>20.4145605</v>
-      </c>
-      <c r="N17">
-        <v>40.829121</v>
-      </c>
-      <c r="O17">
-        <v>0.3538032458052225</v>
-      </c>
-      <c r="P17">
-        <v>0.2737772129294102</v>
-      </c>
-      <c r="Q17">
-        <v>2.045988082431</v>
-      </c>
-      <c r="R17">
-        <v>8.183952329724001</v>
-      </c>
-      <c r="S17">
-        <v>0.1446332614131398</v>
-      </c>
-      <c r="T17">
-        <v>0.09664472258634343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>0.100222</v>
-      </c>
-      <c r="H18">
-        <v>0.200444</v>
-      </c>
-      <c r="I18">
-        <v>0.4087957448891354</v>
-      </c>
-      <c r="J18">
-        <v>0.3530049910007009</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.406654</v>
-      </c>
-      <c r="N18">
-        <v>7.219962000000001</v>
-      </c>
-      <c r="O18">
-        <v>0.04170954337861558</v>
-      </c>
-      <c r="P18">
-        <v>0.04841302054521945</v>
-      </c>
-      <c r="Q18">
-        <v>0.241199677188</v>
-      </c>
-      <c r="R18">
-        <v>1.447198063128</v>
-      </c>
-      <c r="S18">
-        <v>0.01705068385444686</v>
-      </c>
-      <c r="T18">
-        <v>0.01709003788188194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.100222</v>
-      </c>
-      <c r="H19">
-        <v>0.200444</v>
-      </c>
-      <c r="I19">
-        <v>0.4087957448891354</v>
-      </c>
-      <c r="J19">
-        <v>0.3530049910007009</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>10.98218566666667</v>
-      </c>
-      <c r="N19">
-        <v>32.946557</v>
-      </c>
-      <c r="O19">
-        <v>0.1903314516568828</v>
-      </c>
-      <c r="P19">
-        <v>0.2209211545622045</v>
-      </c>
-      <c r="Q19">
-        <v>1.100656611884667</v>
-      </c>
-      <c r="R19">
-        <v>6.603939671308</v>
-      </c>
-      <c r="S19">
-        <v>0.07780668755590586</v>
-      </c>
-      <c r="T19">
-        <v>0.07798627017809547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.05505033333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.165151</v>
-      </c>
-      <c r="I20">
-        <v>0.2245449304683123</v>
-      </c>
-      <c r="J20">
-        <v>0.2908499494559915</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>3.5537505</v>
-      </c>
-      <c r="N20">
-        <v>7.107501</v>
-      </c>
-      <c r="O20">
-        <v>0.06158978841018559</v>
-      </c>
-      <c r="P20">
-        <v>0.04765892007993501</v>
-      </c>
-      <c r="Q20">
-        <v>0.1956351496085</v>
-      </c>
-      <c r="R20">
-        <v>1.173810897651</v>
-      </c>
-      <c r="S20">
-        <v>0.01382967475612319</v>
-      </c>
-      <c r="T20">
-        <v>0.01386159449637623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.05505033333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.165151</v>
-      </c>
-      <c r="I21">
-        <v>0.2245449304683123</v>
-      </c>
-      <c r="J21">
-        <v>0.2908499494559915</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>13.32522833333333</v>
-      </c>
-      <c r="N21">
-        <v>39.975685</v>
-      </c>
-      <c r="O21">
-        <v>0.2309385516983846</v>
-      </c>
-      <c r="P21">
-        <v>0.2680545492087383</v>
-      </c>
-      <c r="Q21">
-        <v>0.7335582614927778</v>
-      </c>
-      <c r="R21">
-        <v>6.602024353435</v>
-      </c>
-      <c r="S21">
-        <v>0.05185608103356652</v>
-      </c>
-      <c r="T21">
-        <v>0.07796365208881011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.05505033333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.165151</v>
-      </c>
-      <c r="I22">
-        <v>0.2245449304683123</v>
-      </c>
-      <c r="J22">
-        <v>0.2908499494559915</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>7.017941</v>
-      </c>
-      <c r="N22">
-        <v>21.053823</v>
-      </c>
-      <c r="O22">
-        <v>0.1216274190507089</v>
-      </c>
-      <c r="P22">
-        <v>0.1411751426744924</v>
-      </c>
-      <c r="Q22">
-        <v>0.3863399913636667</v>
-      </c>
-      <c r="R22">
-        <v>3.477059922273</v>
-      </c>
-      <c r="S22">
-        <v>0.02731082035378172</v>
-      </c>
-      <c r="T22">
-        <v>0.0410607831113185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.05505033333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.165151</v>
-      </c>
-      <c r="I23">
-        <v>0.2245449304683123</v>
-      </c>
-      <c r="J23">
-        <v>0.2908499494559915</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>20.4145605</v>
-      </c>
-      <c r="N23">
-        <v>40.829121</v>
-      </c>
-      <c r="O23">
-        <v>0.3538032458052225</v>
-      </c>
-      <c r="P23">
-        <v>0.2737772129294102</v>
-      </c>
-      <c r="Q23">
-        <v>1.1238283603785</v>
-      </c>
-      <c r="R23">
-        <v>6.742970162271</v>
-      </c>
-      <c r="S23">
-        <v>0.07944472522879692</v>
-      </c>
-      <c r="T23">
-        <v>0.07962808854272117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.05505033333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.165151</v>
-      </c>
-      <c r="I24">
-        <v>0.2245449304683123</v>
-      </c>
-      <c r="J24">
-        <v>0.2908499494559915</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.406654</v>
-      </c>
-      <c r="N24">
-        <v>7.219962000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.04170954337861558</v>
-      </c>
-      <c r="P24">
-        <v>0.04841302054521945</v>
-      </c>
-      <c r="Q24">
-        <v>0.132487104918</v>
-      </c>
-      <c r="R24">
-        <v>1.192383944262</v>
-      </c>
-      <c r="S24">
-        <v>0.009365666517816292</v>
-      </c>
-      <c r="T24">
-        <v>0.01408092457858895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.05505033333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.165151</v>
-      </c>
-      <c r="I25">
-        <v>0.2245449304683123</v>
-      </c>
-      <c r="J25">
-        <v>0.2908499494559915</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>10.98218566666667</v>
-      </c>
-      <c r="N25">
-        <v>32.946557</v>
-      </c>
-      <c r="O25">
-        <v>0.1903314516568828</v>
-      </c>
-      <c r="P25">
-        <v>0.2209211545622045</v>
-      </c>
-      <c r="Q25">
-        <v>0.6045729816785556</v>
-      </c>
-      <c r="R25">
-        <v>5.441156835107</v>
-      </c>
-      <c r="S25">
-        <v>0.04273796257822769</v>
-      </c>
-      <c r="T25">
-        <v>0.06425490663817646</v>
+        <v>0.1042049692995793</v>
       </c>
     </row>
   </sheetData>
